--- a/biology/Botanique/Huile_de_soja/Huile_de_soja.xlsx
+++ b/biology/Botanique/Huile_de_soja/Huile_de_soja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Évolution de la production mondiale d'huile de soja de 1961 à 2017[1],[2].  
+    Évolution de la production mondiale d'huile de soja de 1961 à 2017,.  
 L'huile de soja est une huile végétale extraite du soja par trituration, et utilisée dans l'alimentation. Depuis quelques années, elle est aussi utilisée dans la production de biogazole.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile de soja contient de l'acide oléique (23 %), de l'acide linoléique (51 %), et de l'acide alpha-linolénique (8 %). C'est une source naturelle importante d'acides gras insaturés des familles des oméga-6 et des oméga-3. Elle présente, selon l'AFSSA, un ratio oméga-6/oméga-3 de 6,7 (un taux un peu trop élevé), le taux idéal étant proche de 5[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile de soja contient de l'acide oléique (23 %), de l'acide linoléique (51 %), et de l'acide alpha-linolénique (8 %). C'est une source naturelle importante d'acides gras insaturés des familles des oméga-6 et des oméga-3. Elle présente, selon l'AFSSA, un ratio oméga-6/oméga-3 de 6,7 (un taux un peu trop élevé), le taux idéal étant proche de 5.
 Aux États-Unis, c'est l'huile végétale alimentaire la plus consommée, mais elle n'est pas recommandée pour la friture. Elle peut cependant être utilisée pour une cuisson normale, sans la faire fumer.
 </t>
         </is>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
